--- a/wsgi/static/patterns/ModeloB.xlsx
+++ b/wsgi/static/patterns/ModeloB.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="120">
   <si>
     <t>RUTINA DIARIA DE MANTENIMIENTO MSS-GSM</t>
   </si>
@@ -288,12 +288,135 @@
   <si>
     <t>Reporte Realizado por:</t>
   </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>MSSMA4APG40A ó B</t>
+  </si>
+  <si>
+    <t>C:\&gt;hostname</t>
+  </si>
+  <si>
+    <t>C:\&gt;prcstate</t>
+  </si>
+  <si>
+    <t>Confirmar estar ubicado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> en el Nodo Activo </t>
+  </si>
+  <si>
+    <t>C:\&gt;alist</t>
+  </si>
+  <si>
+    <t>No debería existir alarma alguna, en caso contrario tomar las acciones pertinentes.</t>
+  </si>
+  <si>
+    <t>Alarmas presentes en el AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambos estados </t>
+  </si>
+  <si>
+    <t>deben ser "ONLINE"</t>
+  </si>
+  <si>
+    <t>C:\&gt;cluster res</t>
+  </si>
+  <si>
+    <t>C:\&gt;cluster group</t>
+  </si>
+  <si>
+    <t>Verificar el estado de</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> las fuentes y los grupos.</t>
+  </si>
+  <si>
+    <t>C:\&gt;cdhls</t>
+  </si>
+  <si>
+    <t>C:\&gt;cdhver RTRDEST</t>
+  </si>
+  <si>
+    <t>C:\&gt;afpls</t>
+  </si>
+  <si>
+    <t>Chequear el</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> estado de la transmisión los archivos  de </t>
+  </si>
+  <si>
+    <t>transferencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESTINATION         TRANSFER TYPE                  RTRDEST                FTPV2                         STSDEST1               FTPV2 </t>
+  </si>
+  <si>
+    <t>STATUS              NOTIFICATION                OK                     OK                                         Cualquier resultado diferente debe ser investigado.</t>
+  </si>
+  <si>
+    <t>Verificar que los archivos "NWSSTSxxxxx" sean transmitidos y borrados cada período de tiempo.</t>
+  </si>
+  <si>
+    <t>El estado debe ser "ACTIVE" para que todos los comandos y eventos sean registrados.</t>
+  </si>
+  <si>
+    <t>C:\&gt;aloglist</t>
+  </si>
+  <si>
+    <t>Verificar el estado del AUDITLOG.</t>
+  </si>
+  <si>
+    <t>Los archivos se transmiten sin problemas.</t>
+  </si>
+  <si>
+    <t>Todos los Group se encuentran ONLINE.</t>
+  </si>
+  <si>
+    <t>Todos los resources se encuentran ONLINE.</t>
+  </si>
+  <si>
+    <t>Sistema libre de alarmas.</t>
+  </si>
+  <si>
+    <t>Existen dos dispositivos de las troncales SCRP21O y SCRCTVO en estado LIBL los cuales serán analizados para su posterior optimización.</t>
+  </si>
+  <si>
+    <t>No existen eventos recurrentes.</t>
+  </si>
+  <si>
+    <t>No existen dispositivos con falla.</t>
+  </si>
+  <si>
+    <t>Todas las rutas tienen la supervisión activa.</t>
+  </si>
+  <si>
+    <t>No existen rutas bloqueadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existen algunas rutas con un (1) dispositivo bloqueado, las cuales serán analizadas para lograr su optimización. </t>
+  </si>
+  <si>
+    <t>Todos los puertos estan BUSY.</t>
+  </si>
+  <si>
+    <t>Todas las asociaciones se encuentran activas.</t>
+  </si>
+  <si>
+    <t>No existen eventos mayores</t>
+  </si>
+  <si>
+    <t>Alarmas A1/APZ presentes.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -370,6 +493,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -559,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -755,6 +884,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1060,7 +1207,7 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1298,7 +1445,9 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="75" t="s">
+        <v>119</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="31"/>
       <c r="I17" s="32"/>
@@ -1384,7 +1533,7 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="75"/>
       <c r="G23" s="4"/>
       <c r="H23" s="29"/>
       <c r="I23" s="32"/>
@@ -1401,7 +1550,7 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="75"/>
       <c r="G24" s="4"/>
       <c r="H24" s="29"/>
       <c r="I24" s="32"/>
@@ -1418,7 +1567,7 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="F25" s="75"/>
       <c r="G25" s="4"/>
       <c r="H25" s="29"/>
       <c r="I25" s="32"/>
@@ -1435,7 +1584,7 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="F26" s="75"/>
       <c r="G26" s="4"/>
       <c r="H26" s="29"/>
       <c r="I26" s="32"/>
@@ -1452,7 +1601,7 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="75"/>
       <c r="G27" s="4"/>
       <c r="H27" s="29"/>
       <c r="I27" s="32"/>
@@ -1469,7 +1618,7 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="F28" s="75"/>
       <c r="G28" s="4"/>
       <c r="H28" s="29"/>
       <c r="I28" s="32"/>
@@ -1486,7 +1635,9 @@
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="F29" s="75" t="s">
+        <v>118</v>
+      </c>
       <c r="G29" s="4"/>
       <c r="H29" s="29"/>
       <c r="I29" s="32"/>
@@ -1503,7 +1654,7 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="F30" s="75"/>
       <c r="G30" s="4"/>
       <c r="H30" s="29"/>
       <c r="I30" s="32"/>
@@ -1518,7 +1669,7 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="F31" s="75"/>
       <c r="G31" s="4"/>
       <c r="H31" s="29"/>
       <c r="I31" s="32"/>
@@ -1535,7 +1686,9 @@
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="F32" s="75" t="s">
+        <v>117</v>
+      </c>
       <c r="G32" s="4"/>
       <c r="H32" s="29"/>
       <c r="I32" s="32"/>
@@ -1552,7 +1705,7 @@
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="F33" s="75"/>
       <c r="G33" s="4"/>
       <c r="H33" s="29"/>
       <c r="I33" s="32"/>
@@ -1567,7 +1720,9 @@
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="F34" s="75" t="s">
+        <v>116</v>
+      </c>
       <c r="G34" s="4"/>
       <c r="H34" s="29"/>
       <c r="I34" s="32"/>
@@ -1582,7 +1737,9 @@
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="F35" s="75" t="s">
+        <v>115</v>
+      </c>
       <c r="G35" s="4"/>
       <c r="H35" s="29"/>
       <c r="I35" s="32"/>
@@ -1599,7 +1756,9 @@
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="F36" s="75" t="s">
+        <v>114</v>
+      </c>
       <c r="G36" s="4"/>
       <c r="H36" s="29"/>
       <c r="I36" s="32"/>
@@ -1616,7 +1775,9 @@
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="F37" s="75" t="s">
+        <v>113</v>
+      </c>
       <c r="G37" s="4"/>
       <c r="H37" s="29"/>
       <c r="I37" s="32"/>
@@ -1631,7 +1792,9 @@
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="F38" s="75" t="s">
+        <v>112</v>
+      </c>
       <c r="G38" s="4"/>
       <c r="H38" s="29"/>
       <c r="I38" s="32"/>
@@ -1648,7 +1811,7 @@
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="F39" s="75"/>
       <c r="G39" s="4"/>
       <c r="H39" s="29"/>
       <c r="I39" s="32"/>
@@ -1665,7 +1828,9 @@
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="F40" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="G40" s="4"/>
       <c r="H40" s="29"/>
       <c r="I40" s="32"/>
@@ -1682,7 +1847,9 @@
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
+      <c r="F41" s="75" t="s">
+        <v>110</v>
+      </c>
       <c r="G41" s="4"/>
       <c r="H41" s="29"/>
       <c r="I41" s="32"/>
@@ -1699,7 +1866,7 @@
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="F42" s="75"/>
       <c r="G42" s="4"/>
       <c r="H42" s="29"/>
       <c r="I42" s="32"/>
@@ -1751,7 +1918,7 @@
       <c r="I46" s="32"/>
     </row>
     <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -1774,154 +1941,162 @@
       <c r="I47" s="32"/>
     </row>
     <row r="48" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>10</v>
+      <c r="A48" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
+      <c r="F48" s="75"/>
       <c r="G48" s="4"/>
       <c r="H48" s="29"/>
       <c r="I48" s="32"/>
     </row>
     <row r="49" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>10</v>
+      <c r="A49" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
+      <c r="F49" s="75"/>
       <c r="G49" s="4"/>
       <c r="H49" s="29"/>
       <c r="I49" s="32"/>
     </row>
     <row r="50" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>9</v>
+      <c r="A50" s="25" t="s">
+        <v>87</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>11</v>
+        <v>85</v>
+      </c>
+      <c r="C50" s="71" t="s">
+        <v>86</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
+      <c r="F50" s="75" t="s">
+        <v>109</v>
+      </c>
       <c r="G50" s="4"/>
       <c r="H50" s="29"/>
       <c r="I50" s="32"/>
     </row>
     <row r="51" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="4"/>
+      <c r="A51" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="70"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
+      <c r="F51" s="75" t="s">
+        <v>108</v>
+      </c>
       <c r="G51" s="4"/>
       <c r="H51" s="29"/>
       <c r="I51" s="32"/>
     </row>
     <row r="52" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="4"/>
+      <c r="A52" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="70"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
+      <c r="F52" s="75" t="s">
+        <v>107</v>
+      </c>
       <c r="G52" s="4"/>
       <c r="H52" s="29"/>
       <c r="I52" s="32"/>
     </row>
     <row r="53" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>10</v>
+      <c r="A53" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>94</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
+      <c r="F53" s="75"/>
       <c r="G53" s="4"/>
       <c r="H53" s="29"/>
       <c r="I53" s="32"/>
     </row>
     <row r="54" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>10</v>
+      <c r="A54" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
+      <c r="F54" s="75"/>
       <c r="G54" s="4"/>
       <c r="H54" s="29"/>
       <c r="I54" s="32"/>
     </row>
     <row r="55" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>10</v>
+      <c r="A55" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
+      <c r="F55" s="75" t="s">
+        <v>106</v>
+      </c>
       <c r="G55" s="4"/>
       <c r="H55" s="29"/>
       <c r="I55" s="32"/>
     </row>
     <row r="56" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
+      <c r="F56" s="75"/>
       <c r="G56" s="4"/>
       <c r="H56" s="29"/>
       <c r="I56" s="32"/>
